--- a/pred_ohlcv/54_21/2020-01-22 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BZNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>604410.3601503226</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>653394.3601503226</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>653640.3601503226</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>653886.3601503226</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>654450.5723503225</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>688656.6544503225</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2865613.654250322</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3017574.804550322</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3007750.251650322</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2717787.155750322</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2724867.155750322</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2724787.155750322</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2724671.920050322</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2709671.920050322</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2709751.920050322</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2709591.920050322</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2709591.920050322</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2700591.920050322</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2695857.433450322</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2344567.929550322</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2344650.929550322</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2327433.873050322</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2006981.776450322</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2007065.776450322</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1582921.063250322</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1627563.815250322</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>902540.4180503229</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>843326.4965503229</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>843426.4965503229</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>884921.4158503228</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>888626.4992503228</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>903384.7381503228</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BZNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>604410.3601503226</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>653394.3601503226</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>653640.3601503226</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>653886.3601503226</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>654450.5723503225</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2865613.654250322</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3017574.804550322</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3007750.251650322</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2709671.920050322</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2344567.929550322</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2344650.929550322</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2327433.873050322</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2006981.776450322</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2007065.776450322</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1582921.063250322</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1627563.815250322</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>902540.4180503229</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>843326.4965503229</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>843426.4965503229</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>884921.4158503228</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>903384.7381503228</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>904212.7381503228</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>928970.4888503228</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
